--- a/biology/Histoire de la zoologie et de la botanique/Marcus_Ward_Lyon/Marcus_Ward_Lyon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marcus_Ward_Lyon/Marcus_Ward_Lyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcus Ward Lyon Jr. est un  zoologiste et un biologiste américain, né le 5 février 1875 à Rock Island Arsenal (Illinois) et mort le 19 mai 1942 à South Bend (Indiana).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à l'université Brown puis à l'université George Washington où il obtient son titre de docteur en médecine en 1902 puis son Ph. D. en 1913.
 Il entre en 1898 au National Museum of Natural History de Washington où il effectuera toute sa carrière. Il est d’abord assistant-conservateur au département des mammifères et enseigne à l’université de la ville. Il se marie le 31 décembre 1902 avec Martha Maria Brewer, union dont naîtra une fille.
